--- a/ブロック配置用csv作成ファイル.xlsx
+++ b/ブロック配置用csv作成ファイル.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>x座標</t>
     <rPh sb="1" eb="3">
@@ -67,11 +67,30 @@
     <t>なにもなし</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>typeObject</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,20 +108,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -111,8 +151,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,15 +475,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H107"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G2" t="s">
         <v>8</v>
       </c>
@@ -459,7 +505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>7</v>
       </c>
@@ -467,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G4" t="s">
         <v>4</v>
       </c>
@@ -475,7 +521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G5" t="s">
         <v>5</v>
       </c>
@@ -483,7 +529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G6" t="s">
         <v>6</v>
       </c>
@@ -491,7 +537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G7" t="s">
         <v>3</v>
       </c>
@@ -499,1183 +545,1597 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <f>B9*100+C9</f>
+        <v>0</v>
+      </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <f t="shared" ref="A10:A73" si="0">B10*100+C10</f>
+        <v>1</v>
+      </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
         <v>6</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>7</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>8</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>9</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B28">
-        <f>B27+1</f>
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
       <c r="D28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
       <c r="B29">
-        <f>B28</f>
+        <f>B28+1</f>
         <v>2</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
       <c r="B30">
-        <f t="shared" ref="B30:B37" si="0">B29</f>
+        <f>B29</f>
         <v>2</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
       <c r="B31">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B31:B38" si="1">B30</f>
         <v>2</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
       <c r="B34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>206</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C35">
         <v>6</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B35">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C35">
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C36">
         <v>7</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B36">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C36">
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C37">
         <v>8</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B37">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C37">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>209</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C38">
         <v>9</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B38">
-        <f>B37+1</f>
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
       <c r="D38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
       <c r="B39">
-        <f>B38</f>
+        <f>B38+1</f>
         <v>3</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>301</v>
+      </c>
       <c r="B40">
-        <f t="shared" ref="B40:B47" si="1">B39</f>
+        <f>B39</f>
         <v>3</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>302</v>
+      </c>
       <c r="B41">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B41:B48" si="2">B40</f>
         <v>3</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>303</v>
+      </c>
       <c r="B42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>304</v>
+      </c>
       <c r="B43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>305</v>
+      </c>
       <c r="B44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C45">
         <v>6</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B45">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C45">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>307</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C46">
         <v>7</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B46">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C46">
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>308</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C47">
         <v>8</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B47">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C47">
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>309</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C48">
         <v>9</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B48">
-        <f>B47+1</f>
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
       <c r="D48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
       <c r="B49">
-        <f>B48</f>
+        <f>B48+1</f>
         <v>4</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>401</v>
+      </c>
       <c r="B50">
-        <f t="shared" ref="B50:B57" si="2">B49</f>
+        <f>B49</f>
         <v>4</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>402</v>
+      </c>
       <c r="B51">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B51:B58" si="3">B50</f>
         <v>4</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>403</v>
+      </c>
       <c r="B52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>404</v>
+      </c>
       <c r="B53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
       <c r="B54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>406</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C55">
         <v>6</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B55">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="C55">
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>407</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C56">
         <v>7</v>
       </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B56">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="C56">
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>408</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C57">
         <v>8</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B57">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="C57">
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>409</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C58">
         <v>9</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B58">
-        <f>B57+1</f>
-        <v>5</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
       <c r="D58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
       <c r="B59">
-        <f>B58</f>
+        <f>B58+1</f>
         <v>5</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>501</v>
+      </c>
       <c r="B60">
-        <f t="shared" ref="B60:B67" si="3">B59</f>
+        <f>B59</f>
         <v>5</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>502</v>
+      </c>
       <c r="B61">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B61:B68" si="4">B60</f>
         <v>5</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
+        <f t="shared" si="0"/>
+        <v>503</v>
+      </c>
       <c r="B62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
+        <f t="shared" si="0"/>
+        <v>504</v>
+      </c>
       <c r="B63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
+        <f t="shared" si="0"/>
+        <v>505</v>
+      </c>
       <c r="B64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
+        <f t="shared" si="0"/>
+        <v>506</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C65">
         <v>6</v>
       </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B65">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="C65">
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
+        <f t="shared" si="0"/>
+        <v>507</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C66">
         <v>7</v>
       </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B66">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="C66">
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C67">
         <v>8</v>
       </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B67">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="C67">
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
+        <f t="shared" si="0"/>
+        <v>509</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C68">
         <v>9</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B68">
-        <f>B67+1</f>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="B69">
+        <f>B68+1</f>
         <v>6</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B69">
-        <f>B68</f>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
+        <f t="shared" si="0"/>
+        <v>601</v>
+      </c>
+      <c r="B70">
+        <f>B69</f>
         <v>6</v>
       </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B70">
-        <f t="shared" ref="B70:B77" si="4">B69</f>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
+        <f t="shared" si="0"/>
+        <v>602</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ref="B71:B78" si="5">B70</f>
         <v>6</v>
       </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B71">
-        <f t="shared" si="4"/>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
+        <f t="shared" si="0"/>
+        <v>603</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C71">
-        <v>3</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B72">
-        <f t="shared" si="4"/>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
+        <f t="shared" si="0"/>
+        <v>604</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C72">
-        <v>4</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B73">
-        <f t="shared" si="4"/>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
+        <f t="shared" ref="A74:A108" si="6">B74*100+C74</f>
+        <v>605</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C73">
-        <v>5</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B74">
-        <f t="shared" si="4"/>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
+        <f t="shared" si="6"/>
+        <v>606</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <v>6</v>
       </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B75">
-        <f t="shared" si="4"/>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <f t="shared" si="6"/>
+        <v>607</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <v>7</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B76">
-        <f t="shared" si="4"/>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <f t="shared" si="6"/>
+        <v>608</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C76">
+      <c r="C77">
         <v>8</v>
       </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B77">
-        <f t="shared" si="4"/>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <f t="shared" si="6"/>
+        <v>609</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <v>9</v>
       </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B78">
-        <f>B77+1</f>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <f t="shared" si="6"/>
+        <v>700</v>
+      </c>
+      <c r="B79">
+        <f>B78+1</f>
         <v>7</v>
       </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B79">
-        <f>B78</f>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <f t="shared" si="6"/>
+        <v>701</v>
+      </c>
+      <c r="B80">
+        <f>B79</f>
         <v>7</v>
       </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B80">
-        <f t="shared" ref="B80:B87" si="5">B79</f>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <f t="shared" si="6"/>
+        <v>702</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ref="B81:B88" si="7">B80</f>
         <v>7</v>
       </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B81">
-        <f t="shared" si="5"/>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <f t="shared" si="6"/>
+        <v>703</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C81">
-        <v>3</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B82">
-        <f t="shared" si="5"/>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <f t="shared" si="6"/>
+        <v>704</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C82">
-        <v>4</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B83">
-        <f t="shared" si="5"/>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <f t="shared" si="6"/>
+        <v>705</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C83">
-        <v>5</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B84">
-        <f t="shared" si="5"/>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <f t="shared" si="6"/>
+        <v>706</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C84">
+      <c r="C85">
         <v>6</v>
       </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B85">
-        <f t="shared" si="5"/>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <f t="shared" si="6"/>
+        <v>707</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <v>7</v>
       </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B86">
-        <f t="shared" si="5"/>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <f t="shared" si="6"/>
+        <v>708</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C86">
+      <c r="C87">
         <v>8</v>
       </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B87">
-        <f t="shared" si="5"/>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <f t="shared" si="6"/>
+        <v>709</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="C87">
+      <c r="C88">
         <v>9</v>
       </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B88">
-        <f>B87+1</f>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <f t="shared" si="6"/>
+        <v>800</v>
+      </c>
+      <c r="B89">
+        <f>B88+1</f>
         <v>8</v>
       </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B89">
-        <f>B88</f>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <f t="shared" si="6"/>
+        <v>801</v>
+      </c>
+      <c r="B90">
+        <f>B89</f>
         <v>8</v>
       </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B90">
-        <f t="shared" ref="B90:B97" si="6">B89</f>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <f t="shared" si="6"/>
+        <v>802</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ref="B91:B98" si="8">B90</f>
         <v>8</v>
       </c>
-      <c r="C90">
-        <v>2</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B91">
-        <f t="shared" si="6"/>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <f t="shared" si="6"/>
+        <v>803</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="C91">
-        <v>3</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B92">
-        <f t="shared" si="6"/>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <f t="shared" si="6"/>
+        <v>804</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="C92">
-        <v>4</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B93">
-        <f t="shared" si="6"/>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <f t="shared" si="6"/>
+        <v>805</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="C93">
-        <v>5</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B94">
-        <f t="shared" si="6"/>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <f t="shared" si="6"/>
+        <v>806</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="C94">
+      <c r="C95">
         <v>6</v>
       </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B95">
-        <f t="shared" si="6"/>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <f t="shared" si="6"/>
+        <v>807</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="C95">
+      <c r="C96">
         <v>7</v>
       </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B96">
-        <f t="shared" si="6"/>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <f t="shared" si="6"/>
+        <v>808</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="C96">
+      <c r="C97">
         <v>8</v>
       </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B97">
-        <f t="shared" si="6"/>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <f t="shared" si="6"/>
+        <v>809</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="C97">
+      <c r="C98">
         <v>9</v>
       </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B98">
-        <f>B97+1</f>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <f t="shared" si="6"/>
+        <v>900</v>
+      </c>
+      <c r="B99">
+        <f>B98+1</f>
         <v>9</v>
       </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B99">
-        <f>B98</f>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <f t="shared" si="6"/>
+        <v>901</v>
+      </c>
+      <c r="B100">
+        <f>B99</f>
         <v>9</v>
       </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B100">
-        <f t="shared" ref="B100:B107" si="7">B99</f>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" s="1">
+        <f t="shared" si="6"/>
+        <v>902</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ref="B101:B108" si="9">B100</f>
         <v>9</v>
       </c>
-      <c r="C100">
-        <v>2</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B101">
-        <f t="shared" si="7"/>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" s="1">
+        <f t="shared" si="6"/>
+        <v>903</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="C101">
-        <v>3</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B102">
-        <f t="shared" si="7"/>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" s="1">
+        <f t="shared" si="6"/>
+        <v>904</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="C102">
-        <v>4</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B103">
-        <f t="shared" si="7"/>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" s="1">
+        <f t="shared" si="6"/>
+        <v>905</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="C103">
-        <v>5</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B104">
-        <f t="shared" si="7"/>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" s="1">
+        <f t="shared" si="6"/>
+        <v>906</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="C104">
+      <c r="C105">
         <v>6</v>
       </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B105">
-        <f t="shared" si="7"/>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" s="1">
+        <f t="shared" si="6"/>
+        <v>907</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="C105">
+      <c r="C106">
         <v>7</v>
       </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B106">
-        <f t="shared" si="7"/>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" s="1">
+        <f t="shared" si="6"/>
+        <v>908</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="C106">
+      <c r="C107">
         <v>8</v>
       </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B107">
-        <f t="shared" si="7"/>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" s="1">
+        <f t="shared" si="6"/>
+        <v>909</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="C107">
+      <c r="C108">
         <v>9</v>
       </c>
-      <c r="D107">
+      <c r="D108">
         <v>1</v>
       </c>
     </row>
